--- a/input_output.xlsx
+++ b/input_output.xlsx
@@ -19,25 +19,25 @@
     <x:t>serviceName</x:t>
   </x:si>
   <x:si>
-    <x:t>ServiceX</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ServiceY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ServiceZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ServiceA</x:t>
+    <x:t>1985</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1992</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1995</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CarModelA</x:t>
   </x:si>
   <x:si>
     <x:t>X</x:t>
   </x:si>
   <x:si>
-    <x:t>ServiceB</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ServiceC</x:t>
+    <x:t>CarModelB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CarModelC</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -415,17 +415,11 @@
       <x:c r="B2" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="C2" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
       <x:c r="A3" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="C3" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
       <x:c r="D3" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
@@ -434,10 +428,7 @@
       <x:c r="A4" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D4" s="0" t="s">
+      <x:c r="C4" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
